--- a/data/trans_bre/P10_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,19</t>
+          <t>-0,71; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 11,46</t>
+          <t>-1,91; 11,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 13,17</t>
+          <t>-0,73; 13,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 13,5</t>
+          <t>-2,09; 13,16</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>0,91%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,92</t>
+          <t>-5,1; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,01</t>
+          <t>-4,13; 5,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,12</t>
+          <t>-5,17; 3,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,97</t>
+          <t>-4,23; 6,19</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>0,07%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,39</t>
+          <t>-3,85; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,77</t>
+          <t>-4,85; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 8,47</t>
+          <t>-4,08; 7,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,98</t>
+          <t>-5,19; 7,55</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,01</t>
+          <t>-7,31; 2,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 6,8</t>
+          <t>-4,19; 7,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,31</t>
+          <t>-7,95; 2,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 7,81</t>
+          <t>-4,63; 8,22</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,06</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 12,41</t>
+          <t>-3,9; 11,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 17,19</t>
+          <t>1,15; 15,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 16,91</t>
+          <t>-4,55; 15,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 23,53</t>
+          <t>1,41; 21,98</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>-9,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>-9,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-12,93%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 3,58</t>
+          <t>-14,42; 4,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 1,77</t>
+          <t>-19,13; 1,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 6,67</t>
+          <t>-22,34; 7,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 2,82</t>
+          <t>-25,18; 2,57</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,23</t>
+          <t>-4,34; 1,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 2,66</t>
+          <t>-3,55; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 1,46</t>
+          <t>-5,07; 1,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,15</t>
+          <t>-4,04; 2,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_1-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.029705725806966</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.907289615641718</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.05664420000529041</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.04321252890871445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,71; 11,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 11,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 13,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 13,16</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7088908645227414</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.078816986867149</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.007272803529741286</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02254644499040345</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.4183585887031</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.56109766211059</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1353639202956509</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1238317215973333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 3,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 5,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 3,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,23; 6,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.9019099523981722</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7730254016021676</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.00939906423178743</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.008191494515580334</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,14%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,07%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.09804876203293</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.987748742256805</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.05172647497697808</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.04057073172436185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 6,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 6,58</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 7,9</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,19; 7,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.112563300047571</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.398884452995065</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03303765273186304</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.05892725356755327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,72</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.039305832500315</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2101420425597023</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.0113866733410074</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.002287148366686929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 2,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 7,02</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,95; 2,6</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 8,22</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.84600857721381</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.135687038671781</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.04083009836067835</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.0544179171387584</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.849855130474365</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.749961929630523</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.0789839380882717</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.06583527571318708</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,29</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 11,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 15,91</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 15,72</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 21,98</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.719776079750402</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8964956295612225</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.03016749486353029</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01002826030997581</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-9,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-9,01%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-12,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.308978363621459</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.296413755680582</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.07948780893700483</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04573772705464881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-14,42; 4,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,13; 1,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,34; 7,58</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-25,18; 2,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.29034983856791</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.749817432510229</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02601536537713098</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.07978441097022018</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,99%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.795064375693313</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.820747709754318</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.04731417954479949</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.1113272566536973</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 1,3</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,55; 2,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 1,56</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; 2,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-3.902537171979741</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.720490349744893</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.04549783657617455</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.02070462057941425</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>11.67407591403385</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>17.26914098065483</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.1572476085091319</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.2394756778511073</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-5.450612576022918</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-9.923967384168165</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.09013576387564845</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1425626276486541</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-14.41651641462606</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-21.13740705964603</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2234188231047093</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.280901296827344</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.170667385726966</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.569782164237736</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.07582573822371685</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.02583161797664916</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.688872213553838</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.9230741453340796</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.01988360060710651</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.01069853005582624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.342858940743406</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.790353892583774</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.050709514351403</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.04330604205631241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.301377288987478</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.363728790739995</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.01563181845064544</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.02835258739342291</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
